--- a/db_feed/OFET_template_v6_example1.xlsx
+++ b/db_feed/OFET_template_v6_example1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF844577-1508-4B68-AFC8-5EB68FE5761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B63AE8-E576-4CC3-8426-49FA01BCC8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="422">
   <si>
     <t>UNIT</t>
   </si>
@@ -2451,6 +2451,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2468,9 +2471,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2790,7 +2790,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2818,10 +2818,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="7"/>
@@ -3013,7 +3013,9 @@
         <v>390</v>
       </c>
       <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
+      <c r="D21" s="99" t="s">
+        <v>222</v>
+      </c>
       <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5">
@@ -3073,7 +3075,7 @@
       <c r="A28" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="123" t="s">
         <v>411</v>
       </c>
       <c r="C28" s="40"/>
@@ -3162,7 +3164,7 @@
       <c r="A36" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="123" t="s">
         <v>417</v>
       </c>
       <c r="C36" s="40"/>
@@ -4171,11 +4173,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="88" t="s">
@@ -4677,7 +4679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4705,19 +4707,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -5998,19 +6000,19 @@
         <v>162</v>
       </c>
       <c r="E1" s="31"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7082,19 +7084,19 @@
       <c r="D1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="44"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7714,19 +7716,19 @@
         <v>162</v>
       </c>
       <c r="E1" s="31"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -8154,12 +8156,12 @@
         <v>162</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="49" t="s">
@@ -9103,7 +9105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEZ120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -9149,20 +9151,20 @@
       <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="129"/>
     </row>
     <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
